--- a/medicine/Bioéthique/Liste_des_organisations_opposées_à_la_corrida/Liste_des_organisations_opposées_à_la_corrida.xlsx
+++ b/medicine/Bioéthique/Liste_des_organisations_opposées_à_la_corrida/Liste_des_organisations_opposées_à_la_corrida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_organisations_oppos%C3%A9es_%C3%A0_la_corrida</t>
+          <t>Liste_des_organisations_opposées_à_la_corrida</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette liste recense les organisations, associations, collectifs, fondations et partis politiques opposés à la corrida, en fonction de la localisation de leurs lieux d'activités.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_organisations_oppos%C3%A9es_%C3%A0_la_corrida</t>
+          <t>Liste_des_organisations_opposées_à_la_corrida</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,93 +525,674 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Allemagne
-Antistierkampfc
-Initiative anti corrida[1]
-Stop Corrida
- Argentine
-AnimaNaturalis (es)[2]
- Autriche
-Vier Pfoten
- Belgique
-Animaux en péril
-European green party : Parti vert européen
- Canada
-AMA : Alliance contre le Massacre Animal[3]
+          <t xml:space="preserve"> Allemagne</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Antistierkampfc
+Initiative anti corrida
+Stop Corrida</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_organisations_opposées_à_la_corrida</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_organisations_oppos%C3%A9es_%C3%A0_la_corrida</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Pays</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Argentine</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>AnimaNaturalis (es)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_organisations_opposées_à_la_corrida</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_organisations_oppos%C3%A9es_%C3%A0_la_corrida</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Pays</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Autriche</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Vier Pfoten</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_organisations_opposées_à_la_corrida</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_organisations_oppos%C3%A9es_%C3%A0_la_corrida</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Pays</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Belgique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Animaux en péril
+European green party : Parti vert européen</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_organisations_opposées_à_la_corrida</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_organisations_oppos%C3%A9es_%C3%A0_la_corrida</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Pays</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Canada</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>AMA : Alliance contre le Massacre Animal
 HSC : Human Society of Canada
-CFHS : Canadian Federation of Humane Societies (en)
- Chili
- Colombie
-AnimaNaturalis (es)[4]
-Defensa Animal[5]
-FAUNA : Fuerza Anticrueldad Unida por la Naturaleza de los Animales
- Équateur
-PAE : Protección Animal Ecuador[6]
- Espagne
-ADDA : Asociation Defensa Derechos Animal[7]
-Igualdad Animal (es)[8]
-ASANDA : Asociación Andaluza para la Defensa de los Animales[9]
-AVAT : Association de vétérinaires abolitionnistes de la tauromachie[10]
-FAADA : Fundacion para la Adoption, Apadrinamiento y Defensa de los Animales[11]
-LIBERA[12]
-PACMA : Parti animaliste contre la maltraitance animale[13]
-PLI : Popular Legislative Initiative for the abolition of bullfights[14]
-SOS : Stop our Shame[15]
- États-Unis
-HSI : Humane Society International (en)[16]
-Humane Society of the United States[17]
-IFAW : International Fund for Animal Welfare[18]
-IDA : In Defense of Animals (en)[19]
- France
-ALF France : Front de libération des animaux France[20]
-Alliance anti-corrida[21].
-Alliance écologiste indépendante[22]
-Animal Cross[23]
-Animalsace [24]
-Association Vénus[25]
-BAC : Brigade anticorrida de Marseille[26]
+CFHS : Canadian Federation of Humane Societies (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_organisations_opposées_à_la_corrida</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_organisations_oppos%C3%A9es_%C3%A0_la_corrida</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Pays</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Colombie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>AnimaNaturalis (es)
+Defensa Animal
+FAUNA : Fuerza Anticrueldad Unida por la Naturaleza de los Animales</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_organisations_opposées_à_la_corrida</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_organisations_oppos%C3%A9es_%C3%A0_la_corrida</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Pays</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Équateur</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>PAE : Protección Animal Ecuador</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_organisations_opposées_à_la_corrida</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_organisations_oppos%C3%A9es_%C3%A0_la_corrida</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Pays</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Espagne</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>ADDA : Asociation Defensa Derechos Animal
+Igualdad Animal (es)
+ASANDA : Asociación Andaluza para la Defensa de los Animales
+AVAT : Association de vétérinaires abolitionnistes de la tauromachie
+FAADA : Fundacion para la Adoption, Apadrinamiento y Defensa de los Animales
+LIBERA
+PACMA : Parti animaliste contre la maltraitance animale
+PLI : Popular Legislative Initiative for the abolition of bullfights
+SOS : Stop our Shame</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_organisations_opposées_à_la_corrida</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_organisations_oppos%C3%A9es_%C3%A0_la_corrida</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Pays</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>HSI : Humane Society International (en)
+Humane Society of the United States
+IFAW : International Fund for Animal Welfare
+IDA : In Defense of Animals (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_des_organisations_opposées_à_la_corrida</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_organisations_oppos%C3%A9es_%C3%A0_la_corrida</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Pays</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> France</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>ALF France : Front de libération des animaux France
+Alliance anti-corrida.
+Alliance écologiste indépendante
+Animal Cross
+Animalsace 
+Association Vénus
+BAC : Brigade anticorrida de Marseille
 CAZARRATA : Collectif Anti-Corrida
-CLEDA : Collectif antispéciste contre l'exploitation des animaux[27]
-CVN : Convention Vie et Nature[28]
-COLBAC : Comité de liaison biterrois pour l'abolition de la corrida[29]
-COVAC : collectif des vétérinaires pour l'abolition de la corrida[30]
-CRAC Europe : Comité radicalement anticorrida[31]
-FADJEN, Taureau anti-corrida [32]
-FLAC : Fédération des luttes pour l’abolition des corridas et pour la protection de la jeunesse[33]
+CLEDA : Collectif antispéciste contre l'exploitation des animaux
+CVN : Convention Vie et Nature
+COLBAC : Comité de liaison biterrois pour l'abolition de la corrida
+COVAC : collectif des vétérinaires pour l'abolition de la corrida
+CRAC Europe : Comité radicalement anticorrida
+FADJEN, Taureau anti-corrida 
+FLAC : Fédération des luttes pour l’abolition des corridas et pour la protection de la jeunesse
 France anti corrida FAC : créé en 2018. Associé NC
-LFDA : La fondation droit animal, éthique et sciences[34]
-Fondation 30 millions d'amis[35]
-Fondation Brigitte-Bardot[36]
-No corrida [37]
-One Voice[38]
-PeTA France[39]
-SNDA, Société nationale pour la défense des animaux[40]
-SPA : Société protectrice des animaux[41]
- Israël
-SHEVI : Animal Liberation Israel[42]
- Italie
-Animalisti italiani[43]
- Mexique
-México Antitaurino[44]
- Pays-Bas
-CAS International
- Pérou
- Portugal
-Animal[45]
-MATP : Movimento Anti-Touradas de Portugal[46]
-PAN : Partido Animais Natureza[47]
- Royaume-Uni
-ALF : Animal Liberation Front (Front de libération des animaux)[48]
-Animal Equality (es)[49]
-FAACE : Fight Against Animal Cruelty in Europe[50]
-League against Cruel Sports[51]
-WSPA International : Société mondiale de protection des animaux[52]
-PeTA : People for the Ethical Treatment of Animals[53]
- Suisse
-BORTA[54]
-Fondation Franz Weber
- Venezuela
-Venezuela Antitaurina[55]</t>
+LFDA : La fondation droit animal, éthique et sciences
+Fondation 30 millions d'amis
+Fondation Brigitte-Bardot
+No corrida 
+One Voice
+PeTA France
+SNDA, Société nationale pour la défense des animaux
+SPA : Société protectrice des animaux</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_des_organisations_opposées_à_la_corrida</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_organisations_oppos%C3%A9es_%C3%A0_la_corrida</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Pays</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Israël</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>SHEVI : Animal Liberation Israel</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_des_organisations_opposées_à_la_corrida</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_organisations_oppos%C3%A9es_%C3%A0_la_corrida</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Pays</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Italie</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Animalisti italiani</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_des_organisations_opposées_à_la_corrida</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_organisations_oppos%C3%A9es_%C3%A0_la_corrida</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Pays</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mexique</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>México Antitaurino</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_des_organisations_opposées_à_la_corrida</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_organisations_oppos%C3%A9es_%C3%A0_la_corrida</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Pays</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pays-Bas</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>CAS International</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_des_organisations_opposées_à_la_corrida</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_organisations_oppos%C3%A9es_%C3%A0_la_corrida</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Pays</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Portugal</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Animal
+MATP : Movimento Anti-Touradas de Portugal
+PAN : Partido Animais Natureza</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_des_organisations_opposées_à_la_corrida</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_organisations_oppos%C3%A9es_%C3%A0_la_corrida</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Pays</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Royaume-Uni</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>ALF : Animal Liberation Front (Front de libération des animaux)
+Animal Equality (es)
+FAACE : Fight Against Animal Cruelty in Europe
+League against Cruel Sports
+WSPA International : Société mondiale de protection des animaux
+PeTA : People for the Ethical Treatment of Animals</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_des_organisations_opposées_à_la_corrida</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_organisations_oppos%C3%A9es_%C3%A0_la_corrida</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Pays</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Suisse</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>BORTA
+Fondation Franz Weber</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_des_organisations_opposées_à_la_corrida</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_organisations_oppos%C3%A9es_%C3%A0_la_corrida</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Pays</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Venezuela</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Venezuela Antitaurina</t>
         </is>
       </c>
     </row>
